--- a/big-data/big-data-capstone/project/data/beer_n_Holsten Premium Bier.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Holsten Premium Bier.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>alex_leit(14,173)
+          <t>alex_leit(14,174)
 🇧🇾Minsk, Belarus
 2.5August 13, 2022
 Can 45 cl (Klin). Golden, clear, white foam. Aroma: slightly spicy hops with herbs, candies, a little green apple. Taste: light, slightly watery, malt candies, herbs, mild bitterness, clean,…
@@ -567,7 +567,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TheWhaleNorman(517)
+          <t>TheWhaleNorman(519)
 🇷🇺Moscow, Russia
 2.6April 15, 2022
 Российская лицензия. Водянисто, слишком горько, со сладковатым привкусом.
@@ -638,7 +638,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jonathan_reviews(100)
+          <t>jonathan_reviews(101)
 🇬🇧Preston, England
 2.4January 2, 2022
 A very light coloured lager that is crystal clear and has a very thin head. A very hoppy and slightly malty citrusy aroma. Got a slight sourness to it. Carbonation is modest. It has a mild…
@@ -780,7 +780,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FatPhil(23,239)
+          <t>FatPhil(23,252)
 🇪🇪Tallinn, Estonia
 2.4February 6, 2020
 1L PET (Rimi, Tallinn) (5-:3:5:2:9=2.4-)
@@ -851,7 +851,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AndySnow(13,883)
+          <t>AndySnow(13,897)
 🇸🇪Huddinge, Sweden
 2.4January 11, 2020
 How: Draught.
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BojanM(361)
+          <t>BojanM(362)
 🇧🇦Banja Luka, Bosnia and Herzegovina
 1.9August 19, 2019
 Zlatnozuta boja, bijela pjena srednje debljine, srednje trajna. Arome trave, citrusa i kukuruza. Blage gorčine, pomalo i slatko, kratkog gorkog finiša. Vodene teksture, jake karbonizacije.…
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>as1999(479)
+          <t>as1999(480)
 🇭🇷Zagreb, Croatia
 2.3July 4, 2019
 500 ml
@@ -1345,7 +1345,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vladeath(3,204)
+          <t>vladeath(3,218)
 🇷🇺Russia
 2.7June 5, 2019
 Not a bad Euro lager!
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>thellgren(2,136)
+          <t>thellgren(2,141)
 🇫🇮Helsinki, Finland
 3.4February 10, 2019
 0.5 l can (4.5% ABV) from S-supermarket Ympyrätalo, Helsinki. Nice thirst quencher. Not hoppy but still dry. Taste has some grass. Better than most market lagers.
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bmorowy(762)
+          <t>bmorowy(766)
 🇵🇱Poland
 1.7January 30, 2019
 Barwa złota, ale trochę wypłowiała, klarowne. Piana średnio i drobnopęcherzykowa, brzydko opada. Pachnie jak woda i smakuje jak woda. W aromacie trochę mokrego kartonu, a w…
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nimbleprop(13,646)
+          <t>nimbleprop(13,658)
 🇺🇸Southeast, Washington, United States
 1.9November 12, 2018
 16oz can pours a clear gold with some fluffy, white head. Nose has grass, malt, corn, stale grist. Flavor ain't good, cheap, spritzy, gristy, stale. Finishes watery.
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sparta(3,330)
+          <t>sparta(3,331)
 🇪🇪Pärnu, Estonia
 2.5November 29, 2019
 Õlle on selline jook, et iga uus kord kui klaasi või pudeli suule tõstad, siis leiad midagi uut, sõltuvalt tuhandest-miljonist pisiasjast, mis hetke olukorda mõjutavad. Seega piirdun iga õl…
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>visionthing(7,508)
+          <t>visionthing(7,511)
 🇪🇪Tallinn, Estonia
 2.3March 24, 2018
 50cl can from Prisma, Tallinn. Pours clear pale golden with a modest, white head. Grainy aroma with hints of ripe fruits, cooked vegetables and herbs. Moderate to medium, sweet…
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nybol(4,715)
+          <t>nybol(4,664)
 🇩🇰Denmark
 3.6March 11, 2018
 En noget tynd omgang, tynd i humle og sødme, og alt for syrlig. En af de dårligere tyske øl.
@@ -2462,7 +2462,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cmacklin(3,519)
+          <t>cmacklin(3,525)
 🇨🇦Lethbridge, Canada
 2.3February 14, 2018
 500ml can. Pours a clear gold-yellow with a small, bubbly, short lived, white head that leaves spotty lacing. Mild aroma of grainy malt and bread. Sweet flavour of bready malt, grain and a hint…
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pleispleis(1,272)
+          <t>pleispleis(1,274)
 🇮🇹Maccagno, Italy
 1.9January 22, 2018
 lattina 50 cl, senza schiuma, giallo smorto, una lager come tantissime altre ma peggio.…
@@ -2602,7 +2602,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Calisky(4,943)
+          <t>Calisky(4,947)
 🇫🇷ALSACE, France
 2.6December 17, 2017
 Couleur jaune un peu trouble. Nez malté un peu paille, caramélisé. Gout assez houblonné avec du malté céréales en fin de bouche. Bon corps. Fin sèche un peu amère houblonnée.
@@ -2671,7 +2671,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DoctorHU(1,991)
+          <t>DoctorHU(1,993)
 🇺🇦Transcarpathia, Ukraine
 2.3October 21, 2017
 500 ml can. Pours a crystal clear, golden yellow with medium white head. Aroma is leaves, malt, hay. Taste is sweet grainy malts and a touch of grassy hop bitterness.
@@ -2740,7 +2740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>biilz(1,773)
+          <t>biilz(1,776)
 🇪🇸Spain
 2.4September 14, 2017
 Неплохой, временно очень популярный лагер из Германии.Приятная бутылочка но ничего более экстраординарного.
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>gripweed57(6,219)
+          <t>gripweed57(6,229)
 🇺🇸Hamilton Square, United States
 3.4May 4, 2017
 From old tasting notes. Yellow gold color. Dense white head. Strong hop aroma with with some sweet malt noticeable. medium dry hop flavor dominates the palate throughout. Brief…
@@ -3291,7 +3291,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>azzurro(2,100)
+          <t>azzurro(2,102)
 🇨🇦Ottawa, Canada
 3.7April 13, 2017
 slightly above average beer. Smooth and not disappointing, yet, nothing much different from ’80s beer.
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nurmis(2,260)
+          <t>Nurmis(2,287)
 🇫🇮Oulu, Finland
 2.8June 18, 2016
 Can. Pours clear and golden with medium sized white head. Nice crips carbonation. Hops and malt, with nice bitterness.
@@ -4051,7 +4051,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MetalMurphy(1,761)
+          <t>MetalMurphy(1,760)
 🇭🇺Budapest, Hungary
 2.6May 28, 2016
 bottle @ supermarket. pale colour, light body, high carbonated, an average pilsener beer, nothing special
@@ -4190,7 +4190,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>hrabren(6,448)
+          <t>hrabren(6,452)
 🇭🇷Zagreb, Croatia
 2.0May 29, 2016
 Drank from 2 l Q-pack in the park. Some cereal in aroma. Metallic taste, fake aroma, some bitterness and dryness. Tasteless, nasty, cheap gas station feeling. Horrible!…
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>nephirem(1,948)
+          <t>nephirem(1,956)
 🇭🇷Croatia
 1.6April 6, 2016
 Clear, golden pour with minimal head. Taste is somewhat sweet and a bit grassy.…
@@ -4330,7 +4330,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>phfyysik(2,575)
+          <t>phfyysik(2,576)
 🇪🇪Tartu, Estonia
 2.0February 16, 2016
 Can 0,5L. Pours golden with white top. Nothing special in aroma, some malts, grain, dust. Taste is also quite similar with other wide produced lagers - very small amount of hops, some…
@@ -4680,7 +4680,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MarkoNm(5,581)
+          <t>MarkoNm(5,582)
 🇸🇮Novo mesto, Slovenia
 2.6August 14, 2015
 Pours a clear golden color, topped with an average sized white frothy head. Malty aroma with some minimal grainy notes. Taste starts sweet, light body perhaps a bit watery. Mild…
@@ -4750,7 +4750,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DraftDodger(6,278)
+          <t>DraftDodger(6,287)
 🇩🇰Copenhagen, Denmark
 2.8August 3, 2015
 50 cl can with knight of Holsten proudly riding served in plastic cup at Beach restaurant near Virzpasar. Pours clear yellow with big white head. Settles as 1 cm thick layer of foam. Strong…
@@ -4820,7 +4820,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>funcut(1,304)
+          <t>funcut(1,306)
 🇭🇷SIBENIK, Croatia
 1.5July 7, 2015
 Lose pivo ...jos losije je sad ovo Hrvatsko u plastici od 2 litre ..grozno ...
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>jamaty(2,669)
+          <t>jamaty(2,677)
 🇪🇸Madrid, Spain
 1.8June 13, 2015
 Dorada clara con dos dedos de espuma. Aroma escaso, algo metálico. Bastante carbónica, poco cuerpo y sabor poco marcado, con final metálico. Pilsen barata, bebible y poco más.
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Iznogud(10,892)
+          <t>Iznogud(10,907)
 🇭🇷Zagreb, Croatia
 1.8February 24, 2015
 Canned, 500 ml from Konzum, Zagreb. Pours clear yellow with short lasting white head. Sweetish malty, hay, grass. Drinkable, but that’s about it.
@@ -5999,7 +5999,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>YantarCoast(3,965)
+          <t>YantarCoast(3,970)
 🇷🇺Moscow, Russia
 2.1November 8, 2014
 Russia-brewed version. ABV is 4.8%. Pours pale yellow with a small white head. Aroma is malts, grass and metal. Taste is similar. A bit boring, but I wouldn’t mind drinking a few on a ho…
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gurthnar(10,577)
+          <t>Gurthnar(10,590)
 🇸🇰Bratislava, Slovakia
 1.0October 30, 2014
 4.2% ABV can from Tesco in Miskolc. Aroma corn and pretty strong puke.clear yellow to golden colour. Short lasting head. Taste is well what to say about fizzy metallic puke? Eh...
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>olio(14,751)
+          <t>olio(14,760)
 🇫🇮Tampere, Finland
 2.0July 2, 2014
 50 cl can.…
@@ -6697,7 +6697,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mjs(10,643)
+          <t>mjs(10,650)
 🇫🇮Helsinki, Finland
 2.0June 19, 2014
 (Can from supermarket, 4.5% version, 20140619) The beer poured pale golden and clear. Its head was medium sized and white. Aroma had metallicness and sweetness. Palate was…
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tide(8,851)
+          <t>Tide(8,855)
 🇫🇮Helsinki, Finland
 2.0September 21, 2013
 Can from supermarket. (4.5% ABV). Golden color, white head. Bitter taste with citrus, grain, malts, salted crackers and a bit of grass. Bitter finish with citrus and grain. Decent lager.
@@ -7949,7 +7949,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>graziano85(744)
+          <t>graziano85(745)
 🇭🇺Budapest, Hungary
 2.0August 17, 2013
 Light blond color. Light aroma, some malt. Taste not bad, also a bit bitter, acceptable.
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>VastActiv(13,913)
+          <t>VastActiv(13,916)
 🇫🇮Espoo/Tampere, Finland
 1.6August 16, 2013
 Can 0.5l from local market. Originally rated 17112011. Colour is clear golden with small white head. Aromas and flavours: Grain, metal and malts. Horrible.
@@ -8503,7 +8503,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vinivini(8,602)
+          <t>vinivini(8,612)
 🇧🇾Homiel, Belarus
 3.4March 19, 2016
 Directly from can. Nose of grains, some grass. Light to medium body. Clean grainy taste, light to medium hoppy bitterness. Decent.
@@ -9128,7 +9128,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Cunningham(12,661)
+          <t>Cunningham(12,665)
 🇳🇴Halden, Norway
 2.5December 1, 2012
 Golden colour with a white head. Medium malty and hoppy aroma.  Medium to light body. Moderate sweetness. Mild malt and light fruity flavour. Also a light bitterness.…
@@ -9339,7 +9339,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Kavu(9,376)
+          <t>Kavu(9,382)
 🇫🇮Helsinki, Finland
 1.7November 13, 2012
 0,5 l can (4,5 % version). Pours pale golden with a low head. Aroma is grassy malts. Flavor is grassy malts and metallic alcohol. Tastes double the ABV. Not too great.
@@ -9408,7 +9408,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Oakes(27,868)
+          <t>Oakes(27,870)
 🇨🇦Richmond, Canada
 2.5October 29, 2012
 Golden with low carbonation, light hop and a hint of malt sweetness.  Sweetish with a slightly tart finish.  It’s ok, but is very boring and of average quality.
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>mzaar(6,674)
+          <t>mzaar(6,679)
 🇸🇪Varberg, Sweden
 2.0September 1, 2012
 Sommarregn (faktiskt) är det första som slår emot en i doften, sen kommer också lime och sött godis. Inte så oävet, om än att det är svagt. Smaken är lime och gräs, lite torr känsla.
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CanCrusher(1,807)
+          <t>CanCrusher(1,808)
 🇸🇮Ilirska Bistrica, Slovenia
 2.3August 11, 2012
 Canned. Clear golden color with average frothy white head that disappeared slowly. Aroma is not intensive - some malts, butter, vanilla, grains. Taste is kinda sweetish, nothing outstanding…
@@ -10170,7 +10170,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Kita(4,006)
+          <t>Kita(4,011)
 🇸🇮Koper, Slovenia
 2.4July 17, 2012
 Canned, 0.5l. Clear deep straw color with large frothy white head and fizzy carbonation. Aroma of grassy hops, barley malt, citrus and light skunky note. Ordinary lager taste, on a bit…
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Marduk(17,800)
+          <t>Marduk(17,850)
 🇪🇪Reval, Estonia
 2.1April 26, 2012
 0,5l can. Label says brewed by Saku, Estonia. 4,5% abv, Golden yellow color. Head disappears instantly, flat. Citrus, sour aroma, (wheat?). Sour watery texture.
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Metalchopz(6,095)
+          <t>Metalchopz(6,097)
 🇨🇦Cantley, Canada
 2.5April 5, 2012
 Originally rated February 2005. This pilsner style premium lager poured a golden-yellow colour with a smooth white head. Good lacing was left in a foamy matter. Carbonation was also good.…
@@ -10867,7 +10867,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Grzesiek79(6,706)
+          <t>Grzesiek79(6,711)
 🇵🇱Radom, Poland
 2.9June 3, 2012
 floral, banana, cereal, golden, hazy, frothy, medium sweetness, medium bitterness, medium sourness, medium body, sticky, average carbonation, bitter,
@@ -11491,7 +11491,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Camons(19,560)
+          <t>Camons(19,608)
 🇩🇰Hasselager, Denmark
 2.3July 30, 2011
 Can @ Lanterna Camping, Croatia. Pours light yellow with white head. Aroma and taste is light malty, few grassy hops. Thin body, soft carbonation. 180711
@@ -12327,7 +12327,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>czar(14,062)
+          <t>czar(14,069)
 🇨🇦Québec, Canada
 1.9February 10, 2011
 pours pale yellow with an ok-head. light body, strong carbonation, dry hopped, short finish. lager, yes. premium, meh.
@@ -12396,7 +12396,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>thorongil2(6,233)
+          <t>thorongil2(6,243)
 🇺🇸Camas, United States
 3.1December 22, 2010
 (bottle) clear light amber colour with small white head; pleasant floral aromas; balanced flavour, nothing extraordinary but unoffensive
@@ -12953,7 +12953,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>jaghana(7,691)
+          <t>jaghana(7,692)
 🇫🇷Strasbourg (Alsace), France
 2.8August 18, 2010
 Bottle 50cl. A clear yellow beer with hight carbonation an good head. Smell is caramel-malty and hopy. Aroma is metallic like and hopy, body is medium to low, quite dry at the finish, a bit…
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Yves(4,439)
+          <t>Yves(4,440)
 🇧🇪Beerse, Belgium
 2.3August 16, 2010
 Clear gold coloured beer with small off-white head and medium carbonation. Herby hoppy aroma. Full bit sparkling palate; Finish is bitter hoppy.
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Wim(6,144)
+          <t>Wim(6,150)
 🇧🇪Weelde, Belgium
 2.5August 16, 2010
 gold blond coloured body with a white head a spicy grainy hoppy aroma a spicy grainy hoppy sweet taste and a grainy bitter finish
@@ -13161,7 +13161,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Bif(3,103)
+          <t>Bif(3,106)
 🇺🇸St. Charles, United States
 2.9August 1, 2010
 On-Tap- Beer is a golden yellow with a full head. Aroma had a tinge of hops. Taste was a bit bitter. It had a decent carbonation with a slightly bitter after taste. Beer is good for maybe 1-2.…
@@ -13439,7 +13439,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>KyotoLefty(14,482)
+          <t>KyotoLefty(14,484)
 🇯🇵Kyoto, Japan
 2.7July 12, 2010
 Can. golden color with quickly vanishing head. Malty, slightly bready aroma with a bit of grassy hops. Rich malt flavor, slighly sweet, with cereals and a decently dry finish. Not bad for the…
@@ -13788,7 +13788,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>mcberko(36,641)
+          <t>mcberko(36,658)
 🇨🇦Vancouver, Canada
 1.3February 28, 2010
 Pours golden yellow. Aroma and flavour of grain, dough and grass. Run-of-the-mill.
@@ -13927,7 +13927,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>tomer(5,782)
+          <t>tomer(5,789)
 🇮🇱Rishon Le Zion, Israel
 2.2November 21, 2009
 At a tasting, crystal clear yellow colour, small quickly diminishing head, malty nose, hints of spice, touch of honey, hint of spice, meduim strong bitterness that dissapears…
@@ -14415,7 +14415,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Hermod(14,397)
+          <t>Hermod(14,472)
 🇫🇮Vantaa, Finland
 2.3October 13, 2009
 50cl bottle.  Pours a clear, golden color, nice fluffy head. kinda sweet flacour, corn and hops come to mind.
@@ -14834,7 +14834,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Spab(8,856)
+          <t>Spab(8,863)
 🇨🇦Toronto, Canada
 2.3July 29, 2009
 500 ml can from LCBO.  Pours a clear yellow gold with small white head.  Sweet grassy aroma.  Taste is similarly grassy, less sweet though (almost a little tart).  Hint of bitterness in the…
@@ -15602,7 +15602,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>drpimento(6,473)
+          <t>drpimento(6,478)
 🇺🇸La Crosse, United States
 1.7March 29, 2009
 And to think I really used to like this beer... Got this can at the nearby Supermercado Carrefour here in Recoleta, Buenos Aires a few days ago. Pourd a white head, no lace. Pale gold color.…
@@ -16020,7 +16020,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Pinball(13,783)
+          <t>Pinball(13,785)
 🇩🇰Copenhagen, Denmark
 2.5December 27, 2008
 can 33cl.
@@ -16581,7 +16581,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>mabel(11,305)
+          <t>mabel(11,324)
 🇨🇦Toronto, Canada
 2.1August 4, 2008
 [1261-20080405] 500mL can. Dry roasted cardboard aroma has weird floral toasted yeast characteristics. Clear, light yellow body with a medium-lasting creamy foam. Dry hay and yeast…
@@ -16998,7 +16998,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>charlotte(7,984)
+          <t>charlotte(8,002)
 🇩🇰rødovre, Denmark
 2.9June 16, 2008
 Golden colour with white fluffy head.Aroma of hops and malt feels refreshing and nice German Lager with sweet mouth feels and candy like finish.
@@ -17276,7 +17276,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>jercraigs(14,041)
+          <t>jercraigs(14,046)
 🇨🇦Toronto, Canada
 2.0April 6, 2008
 2008-04-05. Pale yellow body with a tiny white head. Muted aroma, light industrial grains, barely there. Bland light flavour, muted hints of pale grains. Average to thin palate. Dull. Can…
@@ -17834,7 +17834,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>imdownthepub(23,318)
+          <t>imdownthepub(23,350)
 🇬🇧Banbury, England
 1.9January 22, 2008
 Bottled, 330ml, pasteurised. From Phil. Yellow straw with white head. On a quiet Monday night a rating turns up from the blue, strange. Standard eurofizz malty lager, although holds a…
@@ -18323,7 +18323,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>saxo(26,159)
+          <t>saxo(26,163)
 🇩🇰Over Hornbæk, Randers, Denmark
 2.2November 24, 2007
 Can. Medium head with medium duration. Color is golden. Aroma and taste are malt and hops.
@@ -18739,7 +18739,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>robinvboyer(6,820)
+          <t>robinvboyer(6,826)
 🇨🇦Sturgeon Falls, Canada
 2.0September 23, 2007
 pours you regular golden color. Small head, doesnt last very long, decent lacing on the glass.…
@@ -19504,7 +19504,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Tessic(2,025)
+          <t>Tessic(2,028)
 🇨🇦Brantford, Canada
 1.9June 6, 2007
 This lager pours a pale yellow colour with a rocky white head. To the nose, corn light malt and sweet... The first taste is off and very watery. Slightly bitter hop flavour. Hoppy/corn…
@@ -19923,7 +19923,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ekstedt(8,120)
+          <t>ekstedt(8,121)
 🇸🇪Göteborg, Sweden
 2.6April 18, 2007
 Bottle. Clear golden, small white head. Clean, earthy malt aroma. Ok mouthfeel, dry finish with a moderate bitterness. Ok, but nothing special.
@@ -20062,7 +20062,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>RobBestwick(1,330)
+          <t>RobBestwick(1,331)
 🇨🇦Calgary, Canada
 1.7April 8, 2007
 From a can. Light golden/amber with a medium white head. Faint hoppy, slightly chemical aroma. Slightly bitter with nasty metallic hints. Watery finish. Not that good.
@@ -20479,7 +20479,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>yngwie(21,033)
+          <t>yngwie(21,039)
 🇳🇴Kristiansand, Norway
 2.3February 27, 2007
 Can. Dense off-white head on top of an almost golden and clear body. The aroma is quite hop-fruity and almost candy-like. The flavor is hop-fruity as well, in a hoppy way, and has hay and…
@@ -20758,7 +20758,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Borup(22,599)
+          <t>Borup(22,600)
 🇩🇰Albertslund, Denmark
 2.1January 5, 2007
 Can. Golden colour with small white head. Aroma and flavour of grass, malt and hops with a bitter finish.
@@ -20897,7 +20897,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Sigmund(12,249)
+          <t>Sigmund(12,265)
 🇳🇴Tau, Norway
 2.2November 20, 2006
 500 ml can, as Holsten Premium Lager. ABV is 5.0%. Golden colour, moderate head. Standard pale lager aroma, grassy notes. Flavour has first some sweetness, then a certain…
@@ -21036,7 +21036,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Dedollewaitor(20,452)
+          <t>Dedollewaitor(20,453)
 🇩🇰Odense, Denmark
 2.3October 19, 2006
 Plastic bottle 50cl: See through yellow with little quick disappearing white head. Malty &amp; hoppy notes. little sweetness. Yeasty/hay tones. Dry light bitter finish! (harsh hops)
@@ -21803,7 +21803,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SilkTork(7,345)
+          <t>SilkTork(7,347)
 🇬🇧Southampton, United Kingdom, England
 1.6June 29, 2006
 Cafe de la Paix - Tour de Ville, Valreas, Provence. Pression. Whiff of vinegar. A light smack of smudgy bitterness. Carbonated, but the beer is flat and lifeless. Lacking in most…
@@ -22502,7 +22502,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>HenrikSoegaard(19,302)
+          <t>HenrikSoegaard(19,307)
 🇩🇰Randers, Denmark
 2.3March 17, 2006
 Can. Creamy white good mostly lasting head. Pale yellow colour. Moderate hoppy/malty aroma. Nice taste but short finish. A little watery.
@@ -23337,7 +23337,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>pivnizub(12,829)
+          <t>pivnizub(12,834)
 🇩🇪Bochum, Germany
 2.5August 28, 2005
 On tap: Straw golden, medium sized fluffy head; some hoppiness in the aroma, mainly fruity traces of citrus or lemon; distinctive lemony-bitter taste; short slightly bitter finish;…
@@ -23407,7 +23407,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Marko(13,977)
+          <t>Marko(14,025)
 🇨🇿Prague, Czech Republic
 2.1July 17, 2005
 Bottled, from the Scout Club Irish Pub in Samobor. Poured a medium, thick head, that dissipated slowly, some carbonation. Faint malty smell. I detected some breadiness in the flavor,…
@@ -23547,7 +23547,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ALLOVATE(3,707)
+          <t>ALLOVATE(3,708)
 🇦🇺Perth, Australia
 2.6June 27, 2005
 Tasted from the bottle and poured into it’s own stem glass, a decent half inch head formed atop a clear pale gold body. Very clean, freshly mowed grass and herbs aroma, almost pungent…
@@ -24659,7 +24659,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>JoeMcPhee(11,816)
+          <t>JoeMcPhee(11,817)
 🇨🇦Toronto, ON, Canada
 2.5October 12, 2004
 Pale golden colour with a thick white head, fading to thin lace.  Light soft pale malt aroma, a hint of floral hops.  Flavour shows pale malt, floral hops and a bit of bitterness.  Simple, but good.
@@ -24728,7 +24728,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>vanvenlo(2,492)
+          <t>vanvenlo(2,494)
 🇦🇺Glen Iris, Australia
 2.6August 31, 2004
 27 Aug ’04 Aroma: Hoppy simplistic floral. Appear: Clear yellow, low suds lacing, lowish head. Flavour: Hoppy complexity, light malt, simplistic but drinkable. Palate: Light bop bitterness…
@@ -24936,7 +24936,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Eructoblaster(7,443)
+          <t>Eructoblaster(7,480)
 🇨🇦Gatineau, Canada
 2.5June 1, 2004
 Highly carbonated pale straw body. Thick but light-speed fading bubbly head. Exhales an average malty aroma. Bitter and hoppy taste with some metallic notes. Final is a little bit longer than…
@@ -26122,7 +26122,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Ungstrup(48,899)
+          <t>Ungstrup(48,915)
 🇩🇰Citizen of the universe, Denmark
 2.4February 2, 2004
 A yellow beer with a fine dense head. The aroma is slight, but sweet and malty. The flavor is sweet malty with notes of grain and straws. A plain pilsener - OK but nothing special.
@@ -26745,7 +26745,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>fiulijn(27,657)
+          <t>fiulijn(27,674)
 🇨🇦Vancouver, Canada
 1.8August 19, 2003
 Can
@@ -27229,7 +27229,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Braudog(8,384)
+          <t>Braudog(8,385)
 🇺🇸Yorktown, United States
 3.3June 18, 2003
 Maize-colored with that German head and corny aroma.  Likewise, we get a cornstarch flavor common to imported pilsners, but all the same it's a good pils.
@@ -27783,7 +27783,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>larsniclas(9,597)
+          <t>larsniclas(9,602)
 🇸🇪Billdal, Sweden
 2.3April 7, 2003
 Looks too watery, tastes too watery and carbonated. An international standard lager.
@@ -28266,7 +28266,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>ogivlado(14,037)
+          <t>ogivlado(14,052)
 🇭🇷Zagreb, Croatia
 2.9December 21, 2002
 Canned(500ml). -There are better German lagers .............................
@@ -29028,7 +29028,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>pilsnerrogge(4,017)
+          <t>pilsnerrogge(4,019)
 🇸🇪Finspång, Sweden
 1.9June 14, 2002
 Bland &amp; boring &amp; non-descript...............................................
@@ -30619,7 +30619,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>jonas(12,955)
+          <t>jonas(12,972)
 🇩🇪Garching b. München, Germany
 2.8June 26, 2001
 Holsten knallt am dollsten :-)..............................................
